--- a/medicine/Psychotrope/Gräfliches_Hofbrauhaus_Freising/Gräfliches_Hofbrauhaus_Freising.xlsx
+++ b/medicine/Psychotrope/Gräfliches_Hofbrauhaus_Freising/Gräfliches_Hofbrauhaus_Freising.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gr%C3%A4fliches_Hofbrauhaus_Freising</t>
+          <t>Gräfliches_Hofbrauhaus_Freising</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Gräfliches Hofbrauhaus Freising est une brasserie à Freising, dans le Land de Bavière.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gr%C3%A4fliches_Hofbrauhaus_Freising</t>
+          <t>Gräfliches_Hofbrauhaus_Freising</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histoire de la Hofbrauhaus Freising remonte au XIIe siècle. Une brasserie sur le Domberg est mentionnée pour la première fois en 1160 au moment de l'épiscopat d'Albert von Harthausen. En 1620, le prince-évêque Gui Adam Gepeckh von Arnsbach fait construire une nouvelle brasserie dans le Philippsschloss. L'autorisation de continuer à utiliser le préfixe Hof dans le nom de l'entreprise découle toujours de ces liens princiers.
 Lors de la sécularisation et de la dissolution de la principauté épiscopale de Frisingue en 1803, la Hofbrauhaus revint au royaume de Bavière et est acquise en 1812 par la Marie-Léopoldine de Modène. Elle la transmet à son fils, le comte Aloys d'Arco-Stepperg. Après la mort du comte en 1891, sa bru, la comtesse Sophie von Moy de Sons, obtient la brasserie, qui a le nom de Gräflich von Moy’sches Hofbrauhaus.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gr%C3%A4fliches_Hofbrauhaus_Freising</t>
+          <t>Gräfliches_Hofbrauhaus_Freising</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Weißbier: Huber Weisses Original, Huber Weisses Dunkel, Huber Weisses Fresh, Huber Weisses Kristall, Huber Weisses Alkoholfrei
 Untergärig: Urhell / Dunkel Premium / Jägerbier / Leicht / Radler / Alkoholfrei
